--- a/results/test_GROUND_fcSimple_salt_ubtf/test_GROUND_fcSimple_salt_ubtf.xlsx
+++ b/results/test_GROUND_fcSimple_salt_ubtf/test_GROUND_fcSimple_salt_ubtf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\thin\02_Code\Matlab\CryoGRID\2021-0605_CryoGrid\CryoGridTesting\results\test_GROUND_fcSimple_salt_ubtf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F646AF1-52A7-4583-BFF8-9DEAD6864AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71258A8-0F86-4253-BBCD-77F8C389EF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="2355" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,9 +456,6 @@
     <t>xlsx</t>
   </si>
   <si>
-    <t>FORCING_tair_precip</t>
-  </si>
-  <si>
     <t>CG_Beaufort_81_880_short_crop_1yr.mat</t>
   </si>
   <si>
@@ -475,6 +472,9 @@
   </si>
   <si>
     <t>melt_threshold</t>
+  </si>
+  <si>
+    <t>FORCING_tair_precip_old</t>
   </si>
 </sst>
 </file>
@@ -526,15 +526,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -818,14 +814,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
@@ -850,15 +846,15 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4">
@@ -866,12 +862,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -898,7 +891,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
       <c r="B10" t="s">
@@ -976,18 +969,18 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
       <c r="B17">
@@ -995,7 +988,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
       <c r="B18" t="s">
@@ -1006,7 +999,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
       <c r="B19">
@@ -1014,10 +1007,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>130</v>
       </c>
       <c r="F20" t="s">
@@ -1025,7 +1018,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>100</v>
       </c>
       <c r="B21">
@@ -1033,7 +1026,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>101</v>
       </c>
       <c r="B22" t="s">
@@ -1044,7 +1037,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>102</v>
       </c>
       <c r="B23">
@@ -1052,7 +1045,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>103</v>
       </c>
       <c r="B24" t="s">
@@ -1072,7 +1065,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>105</v>
       </c>
       <c r="B25" t="s">
@@ -1089,7 +1082,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>106</v>
       </c>
       <c r="B26" t="s">
@@ -1097,7 +1090,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>107</v>
       </c>
       <c r="B27">
@@ -1105,7 +1098,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>108</v>
       </c>
       <c r="B28" t="s">
@@ -1114,18 +1107,18 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>109</v>
       </c>
       <c r="B29" t="s">
@@ -1137,38 +1130,28 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>126</v>
       </c>
       <c r="B32" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>25</v>
@@ -1298,7 +1281,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
@@ -1309,7 +1292,7 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
         <v>81</v>
@@ -1651,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -1662,7 +1645,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1672,28 +1655,22 @@
       <c r="B92" t="s">
         <v>67</v>
       </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>148</v>
-      </c>
-      <c r="C94" s="7"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
-      <c r="B95" s="4">
-        <v>1</v>
-      </c>
-      <c r="C95" s="7"/>
+      <c r="B95">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -1703,7 +1680,7 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
         <v>67</v>
@@ -1801,7 +1778,7 @@
       <c r="H104">
         <v>0</v>
       </c>
-      <c r="I104" s="8">
+      <c r="I104" s="4">
         <v>600</v>
       </c>
       <c r="J104">
@@ -1831,7 +1808,7 @@
       <c r="H105">
         <v>0</v>
       </c>
-      <c r="I105" s="8">
+      <c r="I105" s="4">
         <v>0</v>
       </c>
       <c r="J105">
@@ -1849,10 +1826,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="7"/>
-    </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>118</v>
@@ -1945,29 +1918,23 @@
       <c r="A124" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B125" s="6">
-        <v>1</v>
-      </c>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="5" t="s">
+      <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" t="s">
@@ -1978,26 +1945,22 @@
       <c r="A128" t="s">
         <v>41</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128">
         <v>3600</v>
       </c>
-      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>42</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129">
         <v>50000</v>
       </c>
-      <c r="C129" s="5"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
@@ -2011,26 +1974,23 @@
       <c r="A133" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B134" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="5"/>
+        <v>144</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
+      <c r="B136" t="s">
         <v>9</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" t="s">
         <v>10</v>
       </c>
       <c r="D136" t="s">
@@ -2041,10 +2001,10 @@
       <c r="A137" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137">
         <v>3600</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137">
         <v>3600</v>
       </c>
       <c r="D137" t="s">
@@ -2058,10 +2018,10 @@
       <c r="A138" t="s">
         <v>42</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138">
         <v>50000</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138">
         <v>50000</v>
       </c>
       <c r="D138" t="s">
@@ -2075,46 +2035,33 @@
       <c r="A139" t="s">
         <v>26</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="5"/>
-      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="6">
-        <v>1</v>
-      </c>
-      <c r="C143" s="5"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="5"/>
-      <c r="C144" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="5" t="s">
+      <c r="B145" t="s">
         <v>9</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" t="s">
         <v>10</v>
       </c>
       <c r="D145" t="s">
@@ -2138,58 +2085,43 @@
         <v>137</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-    </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>41</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148">
         <v>3600</v>
       </c>
-      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>42</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149">
         <v>50000</v>
       </c>
-      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B154" s="2">
         <v>1</v>
@@ -2225,7 +2157,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2301,44 +2233,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-    </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B167" s="6">
-        <v>1</v>
-      </c>
-      <c r="C167" s="5"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
+      <c r="B167" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
+      <c r="B169" t="s">
         <v>9</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" t="s">
         <v>10</v>
       </c>
       <c r="D169" t="s">
@@ -2349,17 +2269,14 @@
       <c r="A170" t="s">
         <v>68</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170">
         <v>0.25</v>
       </c>
-      <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>26</v>
       </c>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
